--- a/Timers.xlsx
+++ b/Timers.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Egor Davydov\Desktop\Programs\C++\HW2_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{46B4AE17-62E6-4038-8620-3559C74E2DCC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A489700-DD78-4F7A-83E0-5D9FF830672E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{B433C50F-0EE7-488F-88FE-9A78BF64CD94}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>arr_10</t>
   </si>
@@ -58,6 +58,9 @@
   </si>
   <si>
     <t>QuickSort</t>
+  </si>
+  <si>
+    <t>Std::sort</t>
   </si>
 </sst>
 </file>
@@ -266,22 +269,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>2.8E-3</c:v>
+                  <c:v>3.0999999999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.1406</c:v>
+                  <c:v>0.1515</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>13.8193</c:v>
+                  <c:v>13.8169</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1535.98</c:v>
+                  <c:v>1473.32</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>140637</c:v>
+                  <c:v>135876</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>877752</c:v>
+                  <c:v>860237</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -351,8 +354,8 @@
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="6"/>
-                <c:pt idx="0" formatCode="0.000">
-                  <c:v>2E-3</c:v>
+                <c:pt idx="0">
+                  <c:v>1.2999999999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>7.6799999999999993E-2</c:v>
@@ -548,6 +551,92 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-DD39-4BEB-BDDC-D537EAA02CD3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Std::sort</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$2:$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>arr_10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>arr_100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>arr_1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>arr_10000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>arr_100000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>arr_250000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$F$2:$F$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2.2000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.32E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.154</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.9616</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>24.447299999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>76.607900000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-54CE-4005-869E-E5432D2BA71E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1651,10 +1740,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39334612-86E9-4B2E-BC3B-262DA59BA1F9}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:E7"/>
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1664,7 +1753,7 @@
     <col min="4" max="4" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -1680,16 +1769,19 @@
       <c r="E1" t="s">
         <v>10</v>
       </c>
+      <c r="F1" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.8E-3</v>
-      </c>
-      <c r="C2" s="2">
-        <v>2E-3</v>
+        <v>3.0999999999999999E-3</v>
+      </c>
+      <c r="C2" s="3">
+        <v>1.2999999999999999E-3</v>
       </c>
       <c r="D2">
         <v>2.8799999999999999E-2</v>
@@ -1697,13 +1789,16 @@
       <c r="E2">
         <v>1.5E-3</v>
       </c>
+      <c r="F2">
+        <v>2.2000000000000001E-3</v>
+      </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.1406</v>
+        <v>0.1515</v>
       </c>
       <c r="C3" s="3">
         <v>7.6799999999999993E-2</v>
@@ -1714,13 +1809,16 @@
       <c r="E3">
         <v>1.54E-2</v>
       </c>
+      <c r="F3">
+        <v>1.32E-2</v>
+      </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>13.8193</v>
+        <v>13.8169</v>
       </c>
       <c r="C4" s="3">
         <v>7.4888000000000003</v>
@@ -1731,13 +1829,16 @@
       <c r="E4">
         <v>0.2097</v>
       </c>
+      <c r="F4">
+        <v>0.154</v>
+      </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>5</v>
       </c>
       <c r="B5">
-        <v>1535.98</v>
+        <v>1473.32</v>
       </c>
       <c r="C5" s="2">
         <v>572.13199999999995</v>
@@ -1748,13 +1849,16 @@
       <c r="E5">
         <v>2.5781000000000001</v>
       </c>
+      <c r="F5">
+        <v>1.9616</v>
+      </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>3</v>
       </c>
       <c r="B6">
-        <v>140637</v>
+        <v>135876</v>
       </c>
       <c r="C6" s="1">
         <v>56211.3</v>
@@ -1765,13 +1869,16 @@
       <c r="E6">
         <v>33.331400000000002</v>
       </c>
+      <c r="F6">
+        <v>24.447299999999998</v>
+      </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>4</v>
       </c>
       <c r="B7">
-        <v>877752</v>
+        <v>860237</v>
       </c>
       <c r="C7" s="4">
         <v>356632</v>
@@ -1781,6 +1888,9 @@
       </c>
       <c r="E7">
         <v>90.317099999999996</v>
+      </c>
+      <c r="F7">
+        <v>76.607900000000001</v>
       </c>
     </row>
   </sheetData>
